--- a/results/mp/logistic/corona/confidence/84/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
@@ -40,51 +40,45 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crude</t>
+    <t>die</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -100,40 +94,43 @@
     <t>great</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>safe</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>better</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>better</t>
+    <t>gt</t>
   </si>
   <si>
     <t>join</t>
@@ -145,28 +142,31 @@
     <t>like</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>care</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,10 +532,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -593,13 +593,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8116438356164384</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>237</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>237</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -664,16 +664,16 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>0.8983050847457628</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -693,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7941176470588235</v>
+        <v>0.7876712328767124</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>230</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>230</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -711,19 +711,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0.875</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L5">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M5">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -743,13 +743,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7894736842105263</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -761,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -793,13 +793,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7837837837837838</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -811,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.8224543080939948</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L7">
-        <v>315</v>
+        <v>27</v>
       </c>
       <c r="M7">
-        <v>315</v>
+        <v>27</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>68</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -864,16 +864,16 @@
         <v>25</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.8103448275862069</v>
+        <v>0.8120104438642297</v>
       </c>
       <c r="L8">
-        <v>47</v>
+        <v>311</v>
       </c>
       <c r="M8">
-        <v>47</v>
+        <v>311</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -893,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5251937984496124</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C9">
-        <v>271</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>271</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -911,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>245</v>
+        <v>24</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.8055555555555556</v>
+        <v>0.796875</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -943,13 +943,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5098039215686274</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -961,19 +961,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0.796875</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L10">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="M10">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -993,13 +993,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5079365079365079</v>
+        <v>0.5096899224806202</v>
       </c>
       <c r="C11">
-        <v>96</v>
+        <v>263</v>
       </c>
       <c r="D11">
-        <v>96</v>
+        <v>263</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1011,19 +1011,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>93</v>
+        <v>253</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.7878787878787878</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L11">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M11">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1043,13 +1043,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4765100671140939</v>
+        <v>0.4496644295302014</v>
       </c>
       <c r="C12">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D12">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1061,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K12">
-        <v>0.7735849056603774</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L12">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="M12">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1093,13 +1093,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3866666666666667</v>
+        <v>0.44</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1111,19 +1111,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K13">
-        <v>0.76875</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1143,13 +1143,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3</v>
+        <v>0.257936507936508</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1161,19 +1161,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>63</v>
+        <v>187</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K14">
-        <v>0.7682926829268293</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L14">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="M14">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1193,13 +1193,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.257936507936508</v>
+        <v>0.128686327077748</v>
       </c>
       <c r="C15">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D15">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1211,318 +1211,270 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>187</v>
+        <v>325</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15">
+        <v>0.7746478873239436</v>
+      </c>
+      <c r="L15">
+        <v>110</v>
+      </c>
+      <c r="M15">
+        <v>110</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16">
+        <v>0.75625</v>
+      </c>
+      <c r="L16">
+        <v>121</v>
+      </c>
+      <c r="M16">
+        <v>121</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K15">
-        <v>0.7676056338028169</v>
-      </c>
-      <c r="L15">
-        <v>109</v>
-      </c>
-      <c r="M15">
-        <v>109</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
+      <c r="K17">
+        <v>0.746031746031746</v>
+      </c>
+      <c r="L17">
+        <v>47</v>
+      </c>
+      <c r="M17">
+        <v>47</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L18">
+        <v>26</v>
+      </c>
+      <c r="M18">
+        <v>26</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19">
+        <v>0.7</v>
+      </c>
+      <c r="L19">
+        <v>28</v>
+      </c>
+      <c r="M19">
+        <v>28</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20">
+        <v>0.6976744186046512</v>
+      </c>
+      <c r="L20">
+        <v>30</v>
+      </c>
+      <c r="M20">
+        <v>30</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21">
+        <v>0.6875</v>
+      </c>
+      <c r="L21">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.1501340482573726</v>
-      </c>
-      <c r="C16">
-        <v>56</v>
-      </c>
-      <c r="D16">
-        <v>56</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>317</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16">
-        <v>0.723404255319149</v>
-      </c>
-      <c r="L16">
-        <v>34</v>
-      </c>
-      <c r="M16">
-        <v>34</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.009342783505154639</v>
-      </c>
-      <c r="C17">
-        <v>29</v>
-      </c>
-      <c r="D17">
-        <v>32</v>
-      </c>
-      <c r="E17">
-        <v>0.09</v>
-      </c>
-      <c r="F17">
-        <v>0.91</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>3075</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17">
-        <v>0.7222222222222222</v>
-      </c>
-      <c r="L17">
-        <v>26</v>
-      </c>
-      <c r="M17">
-        <v>26</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="J18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L18">
-        <v>45</v>
-      </c>
-      <c r="M18">
-        <v>45</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="J19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19">
-        <v>0.6976744186046512</v>
-      </c>
-      <c r="L19">
-        <v>30</v>
-      </c>
-      <c r="M19">
-        <v>30</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
+      <c r="M21">
+        <v>33</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L20">
-        <v>32</v>
-      </c>
-      <c r="M20">
-        <v>32</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
+      <c r="K22">
+        <v>0.6411764705882353</v>
+      </c>
+      <c r="L22">
+        <v>218</v>
+      </c>
+      <c r="M22">
+        <v>218</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K21">
-        <v>0.6352941176470588</v>
-      </c>
-      <c r="L21">
-        <v>216</v>
-      </c>
-      <c r="M21">
-        <v>216</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
+      <c r="K23">
+        <v>0.6</v>
+      </c>
+      <c r="L23">
+        <v>177</v>
+      </c>
+      <c r="M23">
+        <v>177</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K22">
-        <v>0.625</v>
-      </c>
-      <c r="L22">
-        <v>25</v>
-      </c>
-      <c r="M22">
-        <v>25</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
+      <c r="K24">
+        <v>0.5941422594142259</v>
+      </c>
+      <c r="L24">
+        <v>142</v>
+      </c>
+      <c r="M24">
+        <v>142</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K23">
-        <v>0.5884353741496599</v>
-      </c>
-      <c r="L23">
-        <v>173</v>
-      </c>
-      <c r="M23">
-        <v>174</v>
-      </c>
-      <c r="N23">
-        <v>0.99</v>
-      </c>
-      <c r="O23">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="P23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q23">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K24">
-        <v>0.5851063829787234</v>
-      </c>
-      <c r="L24">
-        <v>55</v>
-      </c>
-      <c r="M24">
-        <v>55</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="K25">
         <v>0.5846153846153846</v>
@@ -1546,108 +1498,160 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26">
+        <v>0.58</v>
+      </c>
+      <c r="L26">
+        <v>29</v>
+      </c>
+      <c r="M26">
+        <v>29</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27">
+        <v>0.574468085106383</v>
+      </c>
+      <c r="L27">
+        <v>54</v>
+      </c>
+      <c r="M27">
+        <v>54</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K26">
-        <v>0.5815899581589958</v>
-      </c>
-      <c r="L26">
-        <v>139</v>
-      </c>
-      <c r="M26">
-        <v>139</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
+      <c r="K28">
+        <v>0.5393258426966292</v>
+      </c>
+      <c r="L28">
         <v>48</v>
       </c>
-      <c r="K27">
-        <v>0.54</v>
-      </c>
-      <c r="L27">
-        <v>27</v>
-      </c>
-      <c r="M27">
-        <v>27</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
+      <c r="M28">
+        <v>48</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K29">
+        <v>0.5285714285714286</v>
+      </c>
+      <c r="L29">
+        <v>37</v>
+      </c>
+      <c r="M29">
+        <v>37</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K28">
-        <v>0.5285714285714286</v>
-      </c>
-      <c r="L28">
-        <v>37</v>
-      </c>
-      <c r="M28">
-        <v>37</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
+      <c r="K30">
+        <v>0.4901960784313725</v>
+      </c>
+      <c r="L30">
+        <v>25</v>
+      </c>
+      <c r="M30">
+        <v>25</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K29">
-        <v>0.4831460674157304</v>
-      </c>
-      <c r="L29">
-        <v>43</v>
-      </c>
-      <c r="M29">
-        <v>43</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>46</v>
+      <c r="K31">
+        <v>0.358974358974359</v>
+      </c>
+      <c r="L31">
+        <v>28</v>
+      </c>
+      <c r="M31">
+        <v>28</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
